--- a/Unity/Assets/Config/Excel/Datas/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/AIConfig.xlsx
@@ -1,141 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icefamily/Work/Unity/Projects/ET-Lesson-Study/LubanExcel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDF7101-9CF3-A74A-8189-AFFFB7040862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C256AE-C4F1-684E-8E45-0136A389FFDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-17600" windowWidth="28800" windowHeight="13500" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2080" windowWidth="25900" windowHeight="22940" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
-    <sheet name="AIConfig_2" sheetId="7" r:id="rId2"/>
+    <sheet name="AIConfig_2" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>#</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+  <si>
+    <t>所属ai</t>
+  </si>
+  <si>
+    <t>此ai中的顺序</t>
+  </si>
+  <si>
+    <t>节点名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>节点参数</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>AI_XunLuo</t>
+  </si>
+  <si>
+    <t>巡逻</t>
+  </si>
+  <si>
+    <t>##var</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>所属ai</t>
-  </si>
-  <si>
-    <t>此ai中的顺序</t>
-  </si>
-  <si>
-    <t>节点名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>节点参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AIConfigId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Order</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NodeParams</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,int#sep=,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AI_Attack</t>
-  </si>
-  <si>
-    <t>攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AI_XunLuo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>巡逻</t>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIConfigId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodeParams</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>array,int#sep=,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +122,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -173,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,7 +151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,15 +175,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -216,6 +194,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC6EFCE"/>
+      <color rgb="FFFFC7CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -485,162 +469,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="17">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="2">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="2">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17">
-      <c r="C6" s="2">
-        <f>D6*100+E6</f>
-        <v>101</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17">
-      <c r="C7" s="2">
-        <f>D7*100+E7</f>
-        <v>102</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D6E4F-5837-CD4C-96C1-E77A9ED6A8D0}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -655,87 +616,97 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="17">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="17">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="17">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="17">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B4" s="2">
+        <v>201</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>